--- a/biology/Zoologie/Anilios_polygrammicus/Anilios_polygrammicus.xlsx
+++ b/biology/Zoologie/Anilios_polygrammicus/Anilios_polygrammicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anilios polygrammicus est une espèce de serpents de la famille des Typhlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anilios polygrammicus est une espèce de serpents de la famille des Typhlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Timor oriental et en Indonésie sur les îles de Timor, de Sumba, de Lombok, de Florès, de Sumbawa et de Komodo[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Timor oriental et en Indonésie sur les îles de Timor, de Sumba, de Lombok, de Florès, de Sumbawa et de Komodo,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 août 2014) :
 Anilios polygrammicus brongersmai (Mertens, 1929) de Sumba
 Anilios polygrammicus elberti (Roux, 1911) de Lombok
 Anilios polygrammicus florensis (Boulenger, 1897) de Florès
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été placée dans le genre monotypique Sundatyphlops par Hedges, Marion, Lipp, Marin et Vidal en 2014[2], celui-ci a été placé en synonymie avec Anilios par Pyron et Wallach en 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été placée dans le genre monotypique Sundatyphlops par Hedges, Marion, Lipp, Marin et Vidal en 2014, celui-ci a été placé en synonymie avec Anilios par Pyron et Wallach en 2014.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1897 : List of the reptiles and batrachians collected by Mr. Alfred Everett in Lombok, Flores, Sumba and Saru, with descriptions of new species. Annals and Magazine of Natural History, sér. 6, vol. 19, p. 503-509 (texte intégral).
 Mertens, 1927 : Neue Amphibien und Reptilien aus dem Indo-Australischen Archipel, gesammelt während der Sunda-Expedition Rensch. Senckenbergiana Biologica, vol. 9, p. 234-242.
